--- a/KA_Data/WBlatlong.xlsx
+++ b/KA_Data/WBlatlong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84F116-B1ED-4DF5-9034-8743689198DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF6E1E-A4F0-4D8C-85E4-812100EA9ED3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C0B7F1B-53BD-4B18-A66F-3D9B7DFC6CBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Section</t>
   </si>
@@ -42,7 +42,175 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Lock</t>
+    <t>Latitude degree</t>
+  </si>
+  <si>
+    <t>Longitude degree</t>
+  </si>
+  <si>
+    <t>Lock 1</t>
+  </si>
+  <si>
+    <t>Lock2</t>
+  </si>
+  <si>
+    <t>Lock3</t>
+  </si>
+  <si>
+    <t>Lock4</t>
+  </si>
+  <si>
+    <t>Lock5</t>
+  </si>
+  <si>
+    <t>Lock6</t>
+  </si>
+  <si>
+    <t>Lock7</t>
+  </si>
+  <si>
+    <t>Lock8</t>
+  </si>
+  <si>
+    <t>Lock9</t>
+  </si>
+  <si>
+    <t>Lock10</t>
+  </si>
+  <si>
+    <t>Lock11</t>
+  </si>
+  <si>
+    <t>Lock12</t>
+  </si>
+  <si>
+    <t>Lock13</t>
+  </si>
+  <si>
+    <t>Lock14</t>
+  </si>
+  <si>
+    <t>Lock15</t>
+  </si>
+  <si>
+    <t>Lock16</t>
+  </si>
+  <si>
+    <t>Lock17</t>
+  </si>
+  <si>
+    <t>Lock18</t>
+  </si>
+  <si>
+    <t>Lock19</t>
+  </si>
+  <si>
+    <t>Lock20</t>
+  </si>
+  <si>
+    <t>Lock21</t>
+  </si>
+  <si>
+    <t>Lock22</t>
+  </si>
+  <si>
+    <t>Lock23</t>
+  </si>
+  <si>
+    <t>Lock24</t>
+  </si>
+  <si>
+    <t>Lock25</t>
+  </si>
+  <si>
+    <t>Lock26</t>
+  </si>
+  <si>
+    <t>Lock27</t>
+  </si>
+  <si>
+    <t>Lock28</t>
+  </si>
+  <si>
+    <t>Lock29</t>
+  </si>
+  <si>
+    <t>Lock30</t>
+  </si>
+  <si>
+    <t>Lock31</t>
+  </si>
+  <si>
+    <t>Lock32</t>
+  </si>
+  <si>
+    <t>Lock33</t>
+  </si>
+  <si>
+    <t>Lock34</t>
+  </si>
+  <si>
+    <t>Lock35</t>
+  </si>
+  <si>
+    <t>Lock36</t>
+  </si>
+  <si>
+    <t>Lock37</t>
+  </si>
+  <si>
+    <t>Lock38</t>
+  </si>
+  <si>
+    <t>Lock39</t>
+  </si>
+  <si>
+    <t>Lock40</t>
+  </si>
+  <si>
+    <t>Lock41</t>
+  </si>
+  <si>
+    <t>Lock42</t>
+  </si>
+  <si>
+    <t>Lock43</t>
+  </si>
+  <si>
+    <t>Lock44</t>
+  </si>
+  <si>
+    <t>Lock45</t>
+  </si>
+  <si>
+    <t>Lock46</t>
+  </si>
+  <si>
+    <t>Lock47</t>
+  </si>
+  <si>
+    <t>Lock48</t>
+  </si>
+  <si>
+    <t>Lock49</t>
+  </si>
+  <si>
+    <t>Lock50</t>
+  </si>
+  <si>
+    <t>Lock51</t>
+  </si>
+  <si>
+    <t>Lock52</t>
+  </si>
+  <si>
+    <t>Lock53</t>
+  </si>
+  <si>
+    <t>Lock54</t>
+  </si>
+  <si>
+    <t>Lock55</t>
   </si>
 </sst>
 </file>
@@ -394,26 +562,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FB6141-6D99-4AC2-BB38-77581DF4A652}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,8 +609,16 @@
       <c r="G2">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>B2+(C2/60)+(D2/3600)</f>
+        <v>51.348333333333336</v>
+      </c>
+      <c r="I2">
+        <f>-(E2+(F2/60)+(G2/3600))</f>
+        <v>-2.1463888888888887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,10 +640,18 @@
       <c r="G3">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">B3+(C3/60)+(D3/3600)</f>
+        <v>51.351388888888891</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">-(E3+(F3/60)+(G3/3600))</f>
+        <v>-2.1480555555555556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>51</v>
@@ -481,8 +671,16 @@
       <c r="G4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>51.358611111111109</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-2.1458333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -504,8 +702,16 @@
       <c r="G5">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>51.359722222222224</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-2.1452777777777778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -527,10 +733,18 @@
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>51.368333333333332</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-2.1516666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -550,10 +764,18 @@
       <c r="G7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>51.371111111111112</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-2.1458333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>51</v>
@@ -573,8 +795,16 @@
       <c r="G8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>51.371388888888887</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-2.1455555555555557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -596,10 +826,18 @@
       <c r="G9">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>51.373333333333335</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-2.1461111111111113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>51</v>
@@ -619,8 +857,16 @@
       <c r="G10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>51.373888888888892</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-2.1377777777777776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -642,8 +888,16 @@
       <c r="G11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>51.380833333333335</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-2.1372222222222224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -665,10 +919,18 @@
       <c r="G12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>51.387777777777778</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-2.1341666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>51</v>
@@ -688,10 +950,18 @@
       <c r="G13">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>51.387777777777778</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-2.1324999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>51</v>
@@ -711,10 +981,18 @@
       <c r="G14">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>51.387777777777778</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-2.1308333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>51</v>
@@ -734,8 +1012,16 @@
       <c r="G15">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>51.387777777777778</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-2.1291666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -757,8 +1043,16 @@
       <c r="G16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>51.391111111111108</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-2.1219444444444444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -780,10 +1074,18 @@
       <c r="G17">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>51.396666666666668</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-2.1094444444444447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>51</v>
@@ -803,8 +1105,16 @@
       <c r="G18">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>51.399166666666666</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-2.1091666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -826,10 +1136,18 @@
       <c r="G19">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>51.404722222222219</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-2.1072222222222221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>51</v>
@@ -849,8 +1167,16 @@
       <c r="G20">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>51.405833333333334</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-2.1066666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
@@ -872,8 +1198,16 @@
       <c r="G21">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>51.414166666666667</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>-2.1080555555555556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -895,8 +1229,16 @@
       <c r="G22">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>51.422777777777775</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-2.1080555555555556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -918,8 +1260,16 @@
       <c r="G23">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>51.429166666666667</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-2.0994444444444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -941,10 +1291,18 @@
       <c r="G24">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>51.436944444444443</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-2.0930555555555559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>51</v>
@@ -964,10 +1322,18 @@
       <c r="G25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>51.43805555555555</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-2.0922222222222224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>51</v>
@@ -987,10 +1353,18 @@
       <c r="G26">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>51.438333333333333</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-2.0919444444444446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>51</v>
@@ -1010,8 +1384,16 @@
       <c r="G27">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>51.439166666666665</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-2.0911111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15</v>
       </c>
@@ -1033,8 +1415,16 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>51.442499999999995</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-2.0836111111111113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
@@ -1056,8 +1446,16 @@
       <c r="G29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>51.446944444444441</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-2.0694444444444446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>17</v>
       </c>
@@ -1079,10 +1477,18 @@
       <c r="G30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>51.451111111111111</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-2.0583333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>51</v>
@@ -1102,10 +1508,18 @@
       <c r="G31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>51.451388888888893</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>-2.0580555555555553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>51</v>
@@ -1125,8 +1539,16 @@
       <c r="G32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>51.45194444444445</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>-2.0577777777777775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -1148,8 +1570,16 @@
       <c r="G33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>51.458611111111111</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>-2.0580555555555553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19</v>
       </c>
@@ -1171,8 +1601,16 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>51.465833333333336</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
@@ -1194,8 +1632,16 @@
       <c r="G35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>51.473611111111111</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>-2.0388888888888888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21</v>
       </c>
@@ -1217,8 +1663,16 @@
       <c r="G36">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>51.480555555555554</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-2.0322222222222224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
@@ -1240,10 +1694,18 @@
       <c r="G37">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>51.488055555555555</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-2.0258333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>51</v>
@@ -1263,10 +1725,18 @@
       <c r="G38">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>51.494722222222222</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-2.0274999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>51</v>
@@ -1286,8 +1756,16 @@
       <c r="G39">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>51.495555555555555</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>-2.0280555555555555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>23</v>
       </c>
@@ -1309,8 +1787,16 @@
       <c r="G40">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>51.496388888888887</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-2.028888888888889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24</v>
       </c>
@@ -1332,10 +1818,18 @@
       <c r="G41">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>51.505277777777778</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>-2.0324999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>51</v>
@@ -1355,8 +1849,16 @@
       <c r="G42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>51.50888888888889</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>-2.0277777777777777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>25</v>
       </c>
@@ -1378,8 +1880,16 @@
       <c r="G43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>51.511111111111113</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>-2.0249999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26</v>
       </c>
@@ -1401,10 +1911,18 @@
       <c r="G44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>51.518333333333331</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>-2.0183333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>51</v>
@@ -1424,8 +1942,16 @@
       <c r="G45">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>51.520277777777778</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>-2.0077777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>27</v>
       </c>
@@ -1447,8 +1973,16 @@
       <c r="G46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>51.520833333333336</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>-2.0030555555555556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>28</v>
       </c>
@@ -1470,8 +2004,16 @@
       <c r="G47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>51.523333333333333</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>-1.9886111111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>29</v>
       </c>
@@ -1493,10 +2035,18 @@
       <c r="G48">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>51.524444444444441</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>-1.9766666666666668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>51</v>
@@ -1516,10 +2066,18 @@
       <c r="G49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>51.525555555555556</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>-1.9705555555555556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>51</v>
@@ -1539,10 +2097,18 @@
       <c r="G50">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>51.526111111111113</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>-1.9702777777777778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -1562,10 +2128,18 @@
       <c r="G51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>51.526388888888889</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>-1.9697222222222224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -1585,10 +2159,18 @@
       <c r="G52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>51.526944444444446</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>-1.9694444444444446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -1608,10 +2190,18 @@
       <c r="G53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>51.527499999999996</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>-1.9686111111111113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>51</v>
@@ -1631,10 +2221,18 @@
       <c r="G54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>51.527777777777779</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>-1.9680555555555557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -1654,8 +2252,16 @@
       <c r="G55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>51.528055555555554</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>-1.9677777777777778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>30</v>
       </c>
@@ -1677,8 +2283,16 @@
       <c r="G56">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>51.528611111111111</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>-1.9644444444444444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>31</v>
       </c>
@@ -1700,8 +2314,16 @@
       <c r="G57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>51.531388888888891</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>-1.9524999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>32</v>
       </c>
@@ -1723,8 +2345,16 @@
       <c r="G58">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>51.534999999999997</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>-1.9380555555555556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>33</v>
       </c>
@@ -1746,8 +2376,16 @@
       <c r="G59">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>51.533888888888889</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>-1.9272222222222222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>34</v>
       </c>
@@ -1769,10 +2407,18 @@
       <c r="G60">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>51.532499999999999</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>-1.9119444444444444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <v>51</v>
@@ -1792,10 +2438,18 @@
       <c r="G61">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>51.532499999999999</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B62">
         <v>51</v>
@@ -1815,8 +2469,16 @@
       <c r="G62">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>51.532499999999999</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>-1.9038888888888887</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>35</v>
       </c>
@@ -1838,8 +2500,16 @@
       <c r="G63">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>51.532222222222224</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>-1.8983333333333332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>36</v>
       </c>
@@ -1861,10 +2531,18 @@
       <c r="G64">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>51.534722222222221</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>-1.8822222222222222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B65">
         <v>51</v>
@@ -1884,8 +2562,16 @@
       <c r="G65">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>51.534722222222221</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>-1.8747222222222222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>37</v>
       </c>
@@ -1907,10 +2593,18 @@
       <c r="G66">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>51.533888888888889</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>-1.8708333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B67">
         <v>51</v>
@@ -1930,8 +2624,16 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="2">B67+(C67/60)+(D67/3600)</f>
+        <v>51.532777777777774</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="3">-(E67+(F67/60)+(G67/3600))</f>
+        <v>-1.8669444444444445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>38</v>
       </c>
@@ -1953,8 +2655,16 @@
       <c r="G68">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>51.532222222222224</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>-1.8558333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
@@ -1976,8 +2686,16 @@
       <c r="G69">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>51.536944444444444</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>-1.8450000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>40</v>
       </c>
@@ -1999,8 +2717,16 @@
       <c r="G70">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>51.539722222222217</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>-1.8322222222222222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>41</v>
       </c>
@@ -2022,8 +2748,16 @@
       <c r="G71">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>51.540555555555557</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>-1.8191666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>42</v>
       </c>
@@ -2045,10 +2779,18 @@
       <c r="G72">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>51.540555555555557</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>-1.8044444444444445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B73">
         <v>51</v>
@@ -2068,8 +2810,16 @@
       <c r="G73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>51.540555555555557</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>-1.8011111111111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>43</v>
       </c>
@@ -2091,10 +2841,18 @@
       <c r="G74">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>51.54</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>-1.7894444444444444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <v>51</v>
@@ -2114,10 +2872,18 @@
       <c r="G75">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>51.540555555555557</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>-1.7933333333333332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B76">
         <v>51</v>
@@ -2137,10 +2903,18 @@
       <c r="G76">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>51.537222222222219</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>-1.7811111111111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B77">
         <v>51</v>
@@ -2160,8 +2934,16 @@
       <c r="G77">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>51.536666666666662</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>-1.7794444444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>44</v>
       </c>
@@ -2183,8 +2965,16 @@
       <c r="G78">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>51.535555555555554</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>-1.7763888888888888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>45</v>
       </c>
@@ -2206,8 +2996,16 @@
       <c r="G79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <f t="shared" si="2"/>
+        <v>51.532777777777774</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>-1.7677777777777777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>46</v>
       </c>
@@ -2229,8 +3027,16 @@
       <c r="G80">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>51.533888888888889</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>-1.7555555555555555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>47</v>
       </c>
@@ -2252,10 +3058,18 @@
       <c r="G81">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>51.531388888888891</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>-1.74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B82">
         <v>51</v>
@@ -2275,8 +3089,16 @@
       <c r="G82">
         <v>59</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>51.528611111111111</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>-1.7330555555555556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>48</v>
       </c>
@@ -2298,10 +3120,18 @@
       <c r="G83">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>51.53</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>-1.7300000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B84">
         <v>51</v>
@@ -2321,10 +3151,18 @@
       <c r="G84">
         <v>34</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>51.531666666666666</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>-1.7261111111111112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B85">
         <v>51</v>
@@ -2344,10 +3182,18 @@
       <c r="G85">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <f t="shared" si="2"/>
+        <v>51.532499999999999</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>-1.722777777777778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B86">
         <v>51</v>
@@ -2367,8 +3213,16 @@
       <c r="G86">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <f t="shared" si="2"/>
+        <v>51.535277777777779</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>-1.7191666666666667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>49</v>
       </c>
@@ -2390,10 +3244,18 @@
       <c r="G87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <f t="shared" si="2"/>
+        <v>51.535277777777779</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>-1.7188888888888889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B88">
         <v>51</v>
@@ -2413,8 +3275,16 @@
       <c r="G88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <f t="shared" si="2"/>
+        <v>51.538333333333334</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>-1.7186111111111113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>50</v>
       </c>
@@ -2436,10 +3306,18 @@
       <c r="G89">
         <v>57</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <f t="shared" si="2"/>
+        <v>51.543055555555554</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>-1.7158333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B90">
         <v>51</v>
@@ -2459,10 +3337,18 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <f t="shared" si="2"/>
+        <v>51.545833333333334</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>-1.7169444444444446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>51</v>
@@ -2482,8 +3368,16 @@
       <c r="G91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <f t="shared" si="2"/>
+        <v>51.548888888888889</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>-1.7177777777777778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>51</v>
       </c>
@@ -2505,10 +3399,18 @@
       <c r="G92">
         <v>56</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <f t="shared" si="2"/>
+        <v>51.551111111111105</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>-1.7155555555555555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B93">
         <v>51</v>
@@ -2528,10 +3430,18 @@
       <c r="G93">
         <v>49</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <f t="shared" si="2"/>
+        <v>51.554722222222217</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>-1.713611111111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B94">
         <v>51</v>
@@ -2551,8 +3461,16 @@
       <c r="G94">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <f t="shared" si="2"/>
+        <v>51.562222222222218</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>-1.7133333333333334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>52</v>
       </c>
@@ -2574,8 +3492,16 @@
       <c r="G95">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <f t="shared" si="2"/>
+        <v>51.559444444444445</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>-1.7141666666666666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>53</v>
       </c>
@@ -2597,8 +3523,16 @@
       <c r="G96">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <f t="shared" si="2"/>
+        <v>51.56805555555556</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>-1.7077777777777778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -2620,10 +3554,18 @@
       <c r="G97">
         <v>57</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <f t="shared" si="2"/>
+        <v>51.573888888888895</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>-1.6991666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B98">
         <v>51</v>
@@ -2643,8 +3585,16 @@
       <c r="G98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <f t="shared" si="2"/>
+        <v>51.578055555555558</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>-1.6972222222222222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>55</v>
       </c>
@@ -2666,8 +3616,16 @@
       <c r="G99">
         <v>37</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <f t="shared" si="2"/>
+        <v>51.579444444444448</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>-1.6936111111111112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>56</v>
       </c>
@@ -2689,8 +3647,16 @@
       <c r="G100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <f t="shared" si="2"/>
+        <v>51.586388888888891</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>-1.683888888888889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>57</v>
       </c>
@@ -2712,8 +3678,16 @@
       <c r="G101">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <f t="shared" si="2"/>
+        <v>51.591111111111111</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>-1.671111111111111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>58</v>
       </c>
@@ -2735,8 +3709,16 @@
       <c r="G102">
         <v>29</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <f t="shared" si="2"/>
+        <v>51.589722222222221</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>-1.6580555555555554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>59</v>
       </c>
@@ -2758,8 +3740,16 @@
       <c r="G103">
         <v>46</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <f t="shared" si="2"/>
+        <v>51.594999999999999</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>-1.6461111111111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>60</v>
       </c>
@@ -2781,8 +3771,16 @@
       <c r="G104">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <f t="shared" si="2"/>
+        <v>51.594444444444449</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>-1.6305555555555555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>61</v>
       </c>
@@ -2804,8 +3802,16 @@
       <c r="G105">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <f t="shared" si="2"/>
+        <v>51.600555555555559</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>-1.6208333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>62</v>
       </c>
@@ -2827,10 +3833,18 @@
       <c r="G106">
         <v>29</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <f t="shared" si="2"/>
+        <v>51.601388888888891</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>-1.6080555555555556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B107">
         <v>51</v>
@@ -2850,10 +3864,18 @@
       <c r="G107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <f t="shared" si="2"/>
+        <v>51.602777777777781</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>-1.6016666666666668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B108">
         <v>51</v>
@@ -2873,8 +3895,16 @@
       <c r="G108">
         <v>54</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <f t="shared" si="2"/>
+        <v>51.603055555555557</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>-1.5983333333333334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>63</v>
       </c>
@@ -2896,8 +3926,16 @@
       <c r="G109">
         <v>41</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <f t="shared" si="2"/>
+        <v>51.602499999999999</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>-1.5947222222222224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>64</v>
       </c>
@@ -2919,8 +3957,16 @@
       <c r="G110">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <f t="shared" si="2"/>
+        <v>51.606111111111112</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>-1.5805555555555555</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>65</v>
       </c>
@@ -2942,8 +3988,16 @@
       <c r="G111">
         <v>41</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <f t="shared" si="2"/>
+        <v>51.607777777777777</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>-1.5613888888888889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>66</v>
       </c>
@@ -2965,8 +4019,16 @@
       <c r="G112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <f t="shared" si="2"/>
+        <v>51.608888888888892</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>-1.5505555555555557</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>67</v>
       </c>
@@ -2988,8 +4050,16 @@
       <c r="G113">
         <v>38</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <f t="shared" si="2"/>
+        <v>51.601944444444449</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>-1.5438888888888889</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>68</v>
       </c>
@@ -3011,8 +4081,16 @@
       <c r="G114">
         <v>50</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <f t="shared" si="2"/>
+        <v>51.598611111111111</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>-1.5305555555555554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>69</v>
       </c>
@@ -3034,8 +4112,16 @@
       <c r="G115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <f t="shared" si="2"/>
+        <v>51.596666666666671</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>-1.5027777777777778</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>70</v>
       </c>
@@ -3057,8 +4143,16 @@
       <c r="G116">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <f t="shared" si="2"/>
+        <v>51.595277777777781</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>-1.4883333333333333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>71</v>
       </c>
@@ -3080,8 +4174,16 @@
       <c r="G117">
         <v>38</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <f t="shared" si="2"/>
+        <v>51.591944444444444</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>-1.4772222222222224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>72</v>
       </c>
@@ -3103,8 +4205,16 @@
       <c r="G118">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <f t="shared" si="2"/>
+        <v>51.592777777777783</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>-1.4627777777777777</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>73</v>
       </c>
@@ -3126,8 +4236,16 @@
       <c r="G119">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <f t="shared" si="2"/>
+        <v>51.593055555555559</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>-1.4491666666666667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>74</v>
       </c>
@@ -3149,10 +4267,18 @@
       <c r="G120">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <f t="shared" si="2"/>
+        <v>51.597222222222221</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>-1.4366666666666668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B121">
         <v>51</v>
@@ -3172,10 +4298,18 @@
       <c r="G121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <f t="shared" si="2"/>
+        <v>51.598611111111111</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>-1.433888888888889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B122">
         <v>51</v>
@@ -3195,8 +4329,16 @@
       <c r="G122">
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <f t="shared" si="2"/>
+        <v>51.600555555555559</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>-1.4275</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>75</v>
       </c>
@@ -3218,10 +4360,18 @@
       <c r="G123">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <f t="shared" si="2"/>
+        <v>51.601666666666667</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>-1.4227777777777779</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B124">
         <v>51</v>
@@ -3241,10 +4391,18 @@
       <c r="G124">
         <v>49</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <f t="shared" si="2"/>
+        <v>51.605555555555554</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>-1.4136111111111109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B125">
         <v>51</v>
@@ -3264,10 +4422,18 @@
       <c r="G125">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <f t="shared" si="2"/>
+        <v>51.606944444444444</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>-1.4083333333333332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B126">
         <v>51</v>
@@ -3287,10 +4453,18 @@
       <c r="G126">
         <v>57</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <f t="shared" si="2"/>
+        <v>51.607500000000002</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>-1.3991666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B127">
         <v>51</v>
@@ -3310,8 +4484,16 @@
       <c r="G127">
         <v>28</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <f t="shared" si="2"/>
+        <v>51.608333333333334</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>-1.3911111111111112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>76</v>
       </c>
@@ -3333,8 +4515,16 @@
       <c r="G128">
         <v>40</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <f t="shared" si="2"/>
+        <v>51.606111111111112</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>-1.411111111111111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>77</v>
       </c>
@@ -3356,8 +4546,16 @@
       <c r="G129">
         <v>57</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <f t="shared" si="2"/>
+        <v>51.607500000000002</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="3"/>
+        <v>-1.3991666666666667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>78</v>
       </c>
@@ -3379,10 +4577,18 @@
       <c r="G130">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <f t="shared" si="2"/>
+        <v>51.611666666666665</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="3"/>
+        <v>-1.3872222222222221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B131">
         <v>51</v>
@@ -3402,8 +4608,16 @@
       <c r="G131">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <f t="shared" ref="H131:H144" si="4">B131+(C131/60)+(D131/3600)</f>
+        <v>51.617222222222225</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I144" si="5">-(E131+(F131/60)+(G131/3600))</f>
+        <v>-1.3863888888888889</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>79</v>
       </c>
@@ -3425,10 +4639,18 @@
       <c r="G132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <f t="shared" si="4"/>
+        <v>51.62222222222222</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="5"/>
+        <v>-1.3841666666666665</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B133">
         <v>51</v>
@@ -3448,8 +4670,16 @@
       <c r="G133">
         <v>50</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <f t="shared" si="4"/>
+        <v>51.625</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="5"/>
+        <v>-1.3805555555555555</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>80</v>
       </c>
@@ -3471,8 +4701,16 @@
       <c r="G134">
         <v>35</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <f t="shared" si="4"/>
+        <v>51.626944444444447</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="5"/>
+        <v>-1.3763888888888889</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>81</v>
       </c>
@@ -3494,8 +4732,16 @@
       <c r="G135">
         <v>58</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>51.633611111111108</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="5"/>
+        <v>-1.3661111111111113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>82</v>
       </c>
@@ -3517,8 +4763,16 @@
       <c r="G136">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <f t="shared" si="4"/>
+        <v>51.639444444444443</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>-1.3541666666666667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>83</v>
       </c>
@@ -3540,8 +4794,16 @@
       <c r="G137">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <f t="shared" si="4"/>
+        <v>51.642499999999998</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>-1.3422222222222222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>84</v>
       </c>
@@ -3563,8 +4825,16 @@
       <c r="G138">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <f t="shared" si="4"/>
+        <v>51.644444444444446</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>-1.3308333333333333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>85</v>
       </c>
@@ -3586,8 +4856,16 @@
       <c r="G139">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <f t="shared" si="4"/>
+        <v>51.652499999999996</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>-1.3213888888888889</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>86</v>
       </c>
@@ -3609,10 +4887,18 @@
       <c r="G140">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <f t="shared" si="4"/>
+        <v>51.655277777777776</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>-1.3094444444444444</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B141">
         <v>51</v>
@@ -3632,10 +4918,18 @@
       <c r="G141">
         <v>22</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <f t="shared" si="4"/>
+        <v>51.655555555555551</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="5"/>
+        <v>-1.3061111111111112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B142">
         <v>51</v>
@@ -3655,8 +4949,16 @@
       <c r="G142">
         <v>48</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <f t="shared" si="4"/>
+        <v>51.653611111111111</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="5"/>
+        <v>-1.2966666666666666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>87</v>
       </c>
@@ -3678,8 +4980,16 @@
       <c r="G143">
         <v>48</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <f t="shared" si="4"/>
+        <v>51.653611111111111</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="5"/>
+        <v>-1.2966666666666666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>88</v>
       </c>
@@ -3700,6 +5010,14 @@
       </c>
       <c r="G144">
         <v>56</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="4"/>
+        <v>51.650833333333331</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="5"/>
+        <v>-1.2822222222222222</v>
       </c>
     </row>
   </sheetData>
